--- a/summary.xlsx
+++ b/summary.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>num_full_kits</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
@@ -458,256 +463,1453 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anneke Schönfeld</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>80</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alexander Götz von Olenhusen</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>jersey woman light L (34€), jersey woman dark L (34€), short woman L (22€)</t>
+        <v>138</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), tank dark man L (29€), tank light man L (29€), short multisport L (22€)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Annemarie Blücher</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>151</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Alexander Siemon</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2X short multisport M (22€), jersey woman light L (34€), jersey woman dark L (34€), hoodie_zip woman L (49€)</t>
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short multisport L (22€)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Annika Nolte</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>160</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anna Jansen</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>jersey woman light L (34€), short long M (22€), jersey_long woman dark L (38€), jersey woman dark L (34€), hoodie_no_zip woman M (42€)</t>
+        <v>118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€), jersey light woman L (34€), jersey_long dark woman L (38€), short multisport L (22€)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyrill Meyer</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>144</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anneke Schönfeld</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2X short long XL (22€), jersey man light XL (34€), hoodie_no_zip man XL (42€), jersey man dark XL (34€)</t>
+        <v>118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€), jersey light woman L (34€), jersey_long black woman L (38€), short woman L (22€)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eike Henning Bruns</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>144</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Annemarie Blücher</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2X short long L (22€), jersey man light L (34€), jersey man dark L (34€), hoodie_no_zip man L (42€)</t>
+        <v>189</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2X short multisport L (22€), jersey dark woman L (34€), jersey light woman L (34€), jersey_long black woman L (38€), hoodie_zip woman L (49€)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Frank Zeroch</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>72</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Annika Nolte</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>jersey_long man dark XL (38€), jersey man dark XL (34€)</t>
+        <v>160</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€), jersey light woman L (34€), jersey_long dark woman L (38€), short long M (22€), hoodie_no_zip woman M (42€)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jiri Becker</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>72</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antonia Busch</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>jersey man light M (34€), jersey_long man dark M (38€)</t>
+        <v>80</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€), jersey light woman L (34€), short multisport M (22€)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jonas Sitzmann</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>217</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Björn Thiel</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2X short multisport L (22€), jersey man dark L (34€), jersey man light L (34€), jersey_long man dark L (38€), jersey_long man light L (38€), hoodie_zip man L (49€)</t>
+        <v>80</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short multisport L (22€)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Julia Busse</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boris Wolf</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>102</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2X short long M (22€), jersey woman light L (34€), jersey woman dark L (34€)</t>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2X short multisport L (22€), jersey dark man L (34€), jersey light man L (34€)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Julia Tesch</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cerstin Klinge</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>68</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>jersey woman light L (34€), jersey woman dark L (34€)</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€), jersey light woman L (34€)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Simon Retsch</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>60</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christina Diercks</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>short long M (22€), jersey_long man dark L (38€)</t>
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), jersey_long dark man M (38€), tank dark man M (29€), tank light man M (29€), short woman XL (22€), hoodie_no_zip man L (42€), short multisport XL (22€)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Stefanie Kehr</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>197</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clemens Garve</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>short long M (22€), jersey_long woman dark L (38€), tank woman light L (29€), jersey woman light L (34€), short multisport L (22€), jersey woman dark L (34€), jersey_long woman light L (38€)</t>
+        <v>34</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>jersey light man L (34€)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thies Rudnik</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>144</v>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cyrill Meyer</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2X short multisport L (22€), jersey man dark M (34€), jersey man light M (34€), hoodie_no_zip man L (42€)</t>
+        <v>182</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2X short long XL (22€), jersey dark man XL (34€), jersey light man XL (34€), jersey_long black man XL (38€), hoodie_no_zip man XL (42€)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Daniel Rode</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>129</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short multisport L (22€), hoodie_zip man L (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ebba Wetzig</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>264</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2X short woman S (22€), jersey dark woman S (34€), jersey light woman S (34€), jersey_long dark woman S (38€), jersey_long light woman S (38€), jersey_long black woman S (38€), tank dark woman S (29€), tank light woman S (29€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eike Henning Bruns</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>151</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2X short long L (22€), jersey dark man L (34€), jersey light man L (34€), hoodie_zip man L (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ferdinand Döring</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>80</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short long L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Frank Zeroch</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>72</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>jersey dark man XL (34€), jersey_long dark man XL (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hannes Drobek</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>80</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short multisport XL (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jan Deines</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>80</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jendrik Wolters</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>80</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Jiri Becker</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>72</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>jersey light man M (34€), jersey_long dark man M (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Johannes Pertschy</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>80</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jonas Böhm</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>217</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), jersey_long dark man L (38€), jersey_long light man L (38€), short long L (22€), hoodie_zip man L (49€), short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jonas Sitzmann</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>255</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), jersey_long dark man M (38€), jersey_long light man M (38€), jersey_long black man M (38€), short multisport L (22€), hoodie_zip man L (49€), short long M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jost Maenicke</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>80</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>jersey dark man XL (34€), jersey light man XL (34€), short long L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Julia Busse</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>102</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2X short long M (22€), jersey dark woman L (34€), jersey light woman L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Julia Tesch</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>117</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), hoodie_zip man S (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Kai Sölter</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>595</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2X jersey dark man L (34€), 2X jersey light man L (34€), 2X jersey_long dark man L (38€), 2X jersey_long light man L (38€), 2X jersey_long black man L (38€), 2X tank dark man L (29€), 2X tank light man L (29€), 2X short long L (22€), hoodie_no_zip man L (42€), hoodie_zip man L (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Katharina Wilbrandt</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>167</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>jersey dark man XL (34€), jersey light man XL (34€), jersey_long black man XL (38€), short woman XXL (22€), hoodie_zip man L (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Laura Quante</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>80</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lena Klinge</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>52</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>jersey (kid) dark kid 8 (26€), jersey (kid) light kid 8 (26€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Leopold Lautsch</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>118</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), jersey_long black man M (38€), short long M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Malin Meyer</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>80</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€), jersey light woman L (34€), short woman M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Marcel Klinge</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>466</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3X short multisport XL (22€), 2X jersey dark man XXL (34€), 2X jersey light man XXL (34€), 2X jersey_long black man XXL (38€), 2X hoodie_no_zip man XXL (42€), jersey_long dark man XXL (38€), jersey_long light man XXL (38€), tank dark man XXL (29€), tank light man XXL (29€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Marcel Plogmeyer</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>80</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Marjan Schubert</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>129</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), short multisport L (22€), hoodie_zip man L (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Marlon Klinge</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>52</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>jersey (kid) dark kid 6 (26€), jersey (kid) light kid 6 (26€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Martin Schwerdtfeger</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>80</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Matthias Strotmeier</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>34</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>jersey light man L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Matthis Heimberg</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>80</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Paul Busse</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>519</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2X jersey dark man L (34€), 2X jersey light man L (34€), 2X tank dark man L (29€), 2X tank light man L (29€), 2X short long M (22€), 2X jersey_long dark man M (38€), 2X jersey_long light man M (38€), hoodie_no_zip man XL (42€), hoodie_zip man XL (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pen Yiao Ang</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>68</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>jersey dark man XL (34€), jersey light man XL (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Philipp Uhlich</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>110</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>jersey dark man XL (34€), jersey light man XL (34€), hoodie_no_zip man XL (42€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pickup M1</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>80</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), short long M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pickup M2</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>80</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short long L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pickup M3</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>80</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>jersey dark man XL (34€), jersey light man XL (34€), short long XL (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pickup M4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>80</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>jersey dark man XL (34€), jersey light man XL (34€), short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pickup W1</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>80</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€), jersey light woman L (34€), short woman L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pickup W2</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>80</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>jersey dark woman XL (34€), jersey light woman XL (34€), short multisport XL (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Rudolph du Plooy</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>84</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>jersey light man XL (34€), jersey_long dark man XL (38€), short long XL (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sascha Bambach</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>80</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short long L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Simon Retsch</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>60</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>jersey_long dark man L (38€), short long L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Stefan Böhme</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>68</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Stefanie Kehr</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>197</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€), jersey light woman L (34€), jersey_long dark woman L (38€), jersey_long light woman L (38€), tank light woman L (29€), short multisport L (22€), short long M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Sören Petersen</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>251</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2X jersey dark man M (34€), 2X jersey light man M (34€), 2X short long M (22€), hoodie_no_zip man M (42€), hoodie_zip man M (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Theresa Seligmann</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>118</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), jersey_long light man M (38€), short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Thies Rudnik</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>144</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2X short multisport L (22€), jersey dark man M (34€), jersey light man M (34€), hoodie_no_zip man L (42€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>Tim Kayser</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C60" t="n">
         <v>102</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2X short multisport XL (22€), jersey man light XL (34€), jersey man dark XL (34€)</t>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2X short multisport XL (22€), jersey dark man XL (34€), jersey light man XL (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Tobias Benecke</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>129</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short multisport M (22€), hoodie_zip man L (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Tobias Lülf</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>129</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), short multisport M (22€), hoodie_zip man M (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Torsten Schönfeld</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>118</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), jersey_long black man M (38€), short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Viggo Wetzig</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>264</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2X short long S (22€), jersey dark man S (34€), jersey light man S (34€), jersey_long dark man S (38€), jersey_long light man S (38€), jersey_long black man S (38€), tank dark man S (29€), tank light man S (29€)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nils Hoffmann</t>
+          <t>Chris Bierfreund</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), jersey_long black man M (38€), short multisport S (22€), hoodie_zip man M (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nils Hoffmann</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>jersey dark man S (34€), jersey light man S (34€), short multisport M (22€)</t>
         </is>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,41 +468,248 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chris Bierfreund</t>
+          <t>Alexander Götz von olenhusen</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>jersey dark man M (34€), jersey light man M (34€), jersey_long black man M (38€), short multisport S (22€), hoodie_zip man M (49€)</t>
+          <t>hoodie_zip man L (49€)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Annika Nolte</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>hoodie_zip woman M (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Nein</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chris Bierfreund</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>167</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€), jersey light man M (34€), jersey_long black man M (38€), short multisport S (22€), hoodie_zip man M (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elena Gugganig</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€), jersey light woman L (34€), short woman M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hannes Drobek</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>109</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>jersey_long black man L (38€), tank dark man L (29€), hoodie_no_zip man L (42€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ingo Schmiegel</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>209</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), jersey_long black man L (38€), short multisport L (22€), hoodie_no_zip man L (42€), hoodie_zip man L (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Julia Busse</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>tank light woman L (29€), short multisport L (22€), hoodie_zip woman M (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Katharina Wilbrandt</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>short multisport XL (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Matthis Heimberg</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>109</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>jersey_long black man L (38€), tank dark man L (29€), hoodie_no_zip man L (42€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Nils Hoffmann</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C11" t="n">
         <v>80</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>jersey dark man S (34€), jersey light man S (34€), short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Patrick Jung</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>80</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€), jersey light man L (34€), short long L (22€)</t>
         </is>
       </c>
     </row>
